--- a/01_Input/00_CO Validation/Tajikistan - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Tajikistan - Energy Projects.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27002"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="73" documentId="13_ncr:1_{4D798623-4A28-42C6-9D5C-97D18ADE5574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DA5D861-7A8A-4466-A826-5318A90842C5}"/>
+  <xr:revisionPtr revIDLastSave="98" documentId="13_ncr:1_{4D798623-4A28-42C6-9D5C-97D18ADE5574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5BA3CBE-979D-4EC1-83C9-FD2EE213D4EC}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="96">
   <si>
     <t>Project ID</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Comments</t>
+  </si>
+  <si>
+    <t>Tag</t>
   </si>
   <si>
     <t>SEH Taxonomy</t>
@@ -427,7 +430,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -502,13 +505,68 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -552,46 +610,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -612,6 +630,75 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -921,497 +1008,493 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31B300DB-FA14-4D99-97C9-D812FBCEF4A4}">
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="20.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="45.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="47.42578125" style="3" customWidth="1"/>
-    <col min="10" max="12" width="9.140625" style="3"/>
-    <col min="13" max="13" width="53.85546875" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="9.140625" style="41"/>
+    <col min="2" max="2" width="20.7109375" style="41" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" style="41" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="41" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" style="41" customWidth="1"/>
+    <col min="6" max="6" width="45.28515625" style="41" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" style="41" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="41" customWidth="1"/>
+    <col min="9" max="9" width="47.42578125" style="41" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="41"/>
+    <col min="11" max="11" width="10.140625" style="41" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="41"/>
+    <col min="13" max="13" width="53.85546875" style="37" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="37"/>
+    <col min="15" max="15" width="13.5703125" style="37" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="37" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="37"/>
+    <col min="18" max="18" width="12.7109375" style="37" customWidth="1"/>
+    <col min="19" max="19" width="13.85546875" style="37" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="30.75">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="27" t="s">
+      <c r="N1" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="27" t="s">
+      <c r="O1" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="27" t="s">
+      <c r="P1" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="27" t="s">
+      <c r="Q1" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="27" t="s">
+      <c r="R1" s="30" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" ht="60.75">
-      <c r="A2" s="28">
+      <c r="S1" s="30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="45.75">
+      <c r="A2" s="15">
         <v>5476</v>
       </c>
-      <c r="B2" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="18" t="s">
+      <c r="B2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="19">
+      <c r="C2" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="32">
         <f>386750+104990.75</f>
         <v>491740.75</v>
       </c>
-      <c r="E2" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="20" t="s">
+      <c r="E2" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="21">
+      <c r="F2" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="34">
         <v>0</v>
       </c>
-      <c r="H2" s="21">
+      <c r="H2" s="34">
         <v>1</v>
       </c>
-      <c r="I2" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="29" t="s">
+      <c r="I2" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="22"/>
-      <c r="L2" s="29" t="s">
+      <c r="J2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="22"/>
-      <c r="O2" s="3" t="s">
+      <c r="K2" s="36"/>
+      <c r="L2" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="O2" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="P2" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="R2" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="S2" s="37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="30.75">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="32"/>
+      <c r="E3" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="34">
+        <v>0</v>
+      </c>
+      <c r="H3" s="34">
+        <v>50</v>
+      </c>
+      <c r="I3" s="35"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="38">
+        <v>0.3</v>
+      </c>
+      <c r="L3" s="23"/>
+    </row>
+    <row r="4" spans="1:19" ht="45.75">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="32"/>
+      <c r="E4" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="34">
+        <v>0</v>
+      </c>
+      <c r="H4" s="34">
+        <v>1</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="16"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="23"/>
+      <c r="O4" s="37" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" ht="30.75">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="18" t="s">
+      <c r="P4" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="21">
+      <c r="S4" s="37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="45.75">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="32"/>
+      <c r="E5" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="34">
         <v>0</v>
       </c>
-      <c r="H3" s="21">
-        <v>50</v>
-      </c>
-      <c r="I3" s="20"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="24">
-        <v>0.3</v>
-      </c>
-      <c r="L3" s="30"/>
-      <c r="M3" s="22"/>
-    </row>
-    <row r="4" spans="1:19" ht="60.75">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="21">
-        <v>0</v>
-      </c>
-      <c r="H4" s="21">
+      <c r="H5" s="34">
         <v>1</v>
       </c>
-      <c r="I4" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" s="30"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="22"/>
-      <c r="O4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="P4" s="3" t="s">
+      <c r="I5" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="16"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="23"/>
+      <c r="O5" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="P5" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="S4" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="60.75">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="21">
-        <v>0</v>
-      </c>
-      <c r="H5" s="21">
-        <v>1</v>
-      </c>
-      <c r="I5" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" s="30"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="22"/>
-      <c r="O5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="R5" s="3" t="s">
+      <c r="R5" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="S5" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="S5" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="60.75">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="19">
+    </row>
+    <row r="6" spans="1:19" ht="45.75">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="32">
         <f>130410+535090+104990.75</f>
         <v>770490.75</v>
       </c>
-      <c r="E6" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="21">
+      <c r="E6" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="34">
         <v>0</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="34">
         <v>2000</v>
       </c>
-      <c r="I6" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6" s="30"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="22"/>
-      <c r="O6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="P6" s="3" t="s">
+      <c r="I6" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="16"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="23"/>
+      <c r="O6" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="R6" s="3" t="s">
+      <c r="P6" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="S6" s="3" t="s">
+      <c r="R6" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="S6" s="37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="45.75">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="32"/>
+      <c r="E7" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="34">
+        <v>0</v>
+      </c>
+      <c r="H7" s="34">
+        <v>16000</v>
+      </c>
+      <c r="I7" s="35"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="39">
+        <v>0.625</v>
+      </c>
+      <c r="L7" s="23"/>
+      <c r="O7" s="37" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" ht="60.75">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="20" t="s">
+      <c r="P7" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="21">
-        <v>0</v>
-      </c>
-      <c r="H7" s="21">
-        <v>16000</v>
-      </c>
-      <c r="I7" s="20"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="25">
-        <v>0.625</v>
-      </c>
-      <c r="L7" s="30"/>
-      <c r="M7" s="22"/>
-      <c r="O7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="60.75">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="19">
+    </row>
+    <row r="8" spans="1:19" ht="45.75">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="32">
         <f>1207750+104990.75</f>
         <v>1312740.75</v>
       </c>
-      <c r="E8" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="20" t="s">
+      <c r="E8" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="21">
+      <c r="F8" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="34">
         <v>0</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="34">
         <v>0.75</v>
       </c>
-      <c r="I8" s="20"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="22"/>
-      <c r="O8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="60.75">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="18" t="s">
+      <c r="I8" s="35"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="23"/>
+      <c r="O8" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="P8" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="20" t="s">
+    </row>
+    <row r="9" spans="1:19" ht="45.75">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="D9" s="32"/>
+      <c r="E9" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="21">
+      <c r="F9" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="34">
         <v>0</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="34">
         <v>100</v>
       </c>
-      <c r="I9" s="20"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="26"/>
-      <c r="O9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="60.75">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="20" t="s">
+      <c r="I9" s="35"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="25"/>
+      <c r="O9" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="P9" s="37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="45.75">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="21">
+      <c r="D10" s="32"/>
+      <c r="E10" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="34">
         <v>0</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="34">
         <v>17867</v>
       </c>
-      <c r="I10" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="J10" s="30"/>
-      <c r="K10" s="24">
+      <c r="I10" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="J10" s="16"/>
+      <c r="K10" s="38">
         <v>0.6</v>
       </c>
-      <c r="L10" s="30"/>
-      <c r="M10" s="22"/>
-      <c r="O10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="60.75">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="20" t="s">
+      <c r="L10" s="23"/>
+      <c r="O10" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="P10" s="37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="45.75">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="D11" s="32"/>
+      <c r="E11" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="21">
+      <c r="F11" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="34">
         <v>0</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="34">
         <v>3000000</v>
       </c>
-      <c r="I11" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="J11" s="30"/>
-      <c r="K11" s="24">
+      <c r="I11" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" s="16"/>
+      <c r="K11" s="38">
         <v>0.6</v>
       </c>
-      <c r="L11" s="30"/>
-      <c r="M11" s="22"/>
-      <c r="O11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="P11" s="3" t="s">
+      <c r="L11" s="23"/>
+      <c r="O11" s="37" t="s">
         <v>26</v>
       </c>
+      <c r="P11" s="37" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="12" spans="1:19" ht="60.75">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="19">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="32">
         <f>140000+104990.75</f>
         <v>244990.75</v>
       </c>
-      <c r="E12" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" s="20" t="s">
+      <c r="E12" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="G12" s="21">
+      <c r="F12" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" s="34">
         <v>0</v>
       </c>
-      <c r="H12" s="23"/>
-      <c r="I12" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="J12" s="31"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="26"/>
-      <c r="O12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>41</v>
+      <c r="H12" s="40"/>
+      <c r="I12" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="J12" s="17"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="25"/>
+      <c r="O12" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="P12" s="37" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:19">
-      <c r="D13" s="6"/>
+      <c r="D13" s="42"/>
     </row>
     <row r="16" spans="1:19">
-      <c r="D16" s="4"/>
+      <c r="D16" s="43"/>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="11"/>
+      <c r="D22" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="B2:B12"/>
-    <mergeCell ref="J2:J12"/>
-    <mergeCell ref="L2:L12"/>
-  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O12" xr:uid="{C97CD822-1EF8-494F-AE7E-632A70A49200}">
@@ -1509,20 +1592,20 @@
         <v>5476</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" s="4">
         <f>386750+104990.75</f>
         <v>491740.75</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="9">
         <v>0</v>
@@ -1531,7 +1614,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
@@ -1539,23 +1622,23 @@
         <v>5476</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G3" s="9">
         <v>0</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I3" s="8"/>
     </row>
@@ -1564,17 +1647,17 @@
         <v>5476</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G4" s="9">
         <v>0</v>
@@ -1583,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="45">
@@ -1591,17 +1674,17 @@
         <v>5476</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G5" s="9">
         <v>0</v>
@@ -1610,7 +1693,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="45">
@@ -1618,20 +1701,20 @@
         <v>5476</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D6" s="4">
         <f>130410+535090+104990.75</f>
         <v>770490.75</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G6" s="9">
         <v>0</v>
@@ -1640,7 +1723,7 @@
         <v>2000</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30">
@@ -1648,23 +1731,23 @@
         <v>5476</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G7" s="9">
         <v>0</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I7" s="8"/>
     </row>
@@ -1673,20 +1756,20 @@
         <v>5476</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D8" s="4">
         <f>1207750+104990.75</f>
         <v>1312740.75</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G8" s="9">
         <v>0</v>
@@ -1701,17 +1784,17 @@
         <v>5476</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G9" s="9">
         <v>0</v>
@@ -1726,26 +1809,26 @@
         <v>5476</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G10" s="9">
         <v>0</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="45">
@@ -1753,26 +1836,26 @@
         <v>5476</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G11" s="9">
         <v>0</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="60">
@@ -1780,20 +1863,20 @@
         <v>5476</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D12" s="4">
         <f>140000+104990.75</f>
         <v>244990.75</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G12" s="9">
         <v>0</v>
@@ -1802,7 +1885,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1854,160 +1937,160 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="32" t="s">
-        <v>68</v>
+      <c r="A2" s="18" t="s">
+        <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="32"/>
+      <c r="A3" s="18"/>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="32"/>
+      <c r="A4" s="18"/>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="33" t="s">
-        <v>73</v>
+      <c r="A5" s="19" t="s">
+        <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="33"/>
+      <c r="A6" s="19"/>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="33"/>
+      <c r="A7" s="19"/>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="33"/>
+      <c r="A8" s="19"/>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="33"/>
+      <c r="A9" s="19"/>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="34" t="s">
-        <v>83</v>
+      <c r="A10" s="20" t="s">
+        <v>84</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="34"/>
+      <c r="A11" s="20"/>
       <c r="B11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="35" t="s">
-        <v>87</v>
+      <c r="A12" s="21" t="s">
+        <v>88</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="35"/>
+      <c r="A13" s="21"/>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="35"/>
+      <c r="A14" s="21"/>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2022,19 +2105,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dd739a91710fed73edeed3c312976475">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="829e6ebd84bdd7e43dc34d34aecb984e" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
     <xsd:import namespace="fb9e4d32-074f-4c04-81ef-e811753dfd59"/>
     <xsd:element name="properties">
@@ -2058,6 +2139,7 @@
                 <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -2133,6 +2215,11 @@
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="fb9e4d32-074f-4c04-81ef-e811753dfd59" elementFormDefault="qualified">
@@ -2276,22 +2363,24 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AC3D2A-DE44-44DA-AD33-132B1E30BC8B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED27DB37-F879-4BD0-B767-D6A66DA4F9F8}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF9812AA-D93C-4398-9B90-7541453D572F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86C6D015-974A-4D7C-A3B3-2F90FB0753ED}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED27DB37-F879-4BD0-B767-D6A66DA4F9F8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AC3D2A-DE44-44DA-AD33-132B1E30BC8B}"/>
 </file>
--- a/01_Input/00_CO Validation/Tajikistan - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Tajikistan - Energy Projects.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27002"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27016"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="98" documentId="13_ncr:1_{4D798623-4A28-42C6-9D5C-97D18ADE5574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5BA3CBE-979D-4EC1-83C9-FD2EE213D4EC}"/>
+  <xr:revisionPtr revIDLastSave="105" documentId="13_ncr:1_{4D798623-4A28-42C6-9D5C-97D18ADE5574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0CCD1CA-B6C5-4760-A3E4-056CBE40B3B8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,9 @@
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="96">
   <si>
     <t>Project ID</t>
   </si>
@@ -124,54 +127,36 @@
     <t>Legal Framework</t>
   </si>
   <si>
-    <t>https://open.undp.org/projects/00097770</t>
-  </si>
-  <si>
     <t>Capacity Training</t>
   </si>
   <si>
     <t xml:space="preserve">Number of officials trained (including number of women) </t>
   </si>
   <si>
-    <t>https://open.undp.org/projects/00097771</t>
-  </si>
-  <si>
     <t>Status of by-laws, providing financial incentives and support mechanisms for green energy investment</t>
   </si>
   <si>
     <t xml:space="preserve">Target: 2.0 MW. Final version of a by-law providing a financial support mechanism for green energy investment approved </t>
   </si>
   <si>
-    <t>https://open.undp.org/projects/00097772</t>
-  </si>
-  <si>
     <t xml:space="preserve">Status of system of compliance checks and enforcement of performance standard for selected EE/RE products </t>
   </si>
   <si>
     <t>Target: Final version approved by decision-makers</t>
   </si>
   <si>
-    <t>https://open.undp.org/projects/00097773</t>
-  </si>
-  <si>
     <t xml:space="preserve">Number and volume (US$) of green loans approved for SWH and other targeted EE/RE products (including those for women-led SMEs) </t>
   </si>
   <si>
     <t>Target: 2,000 loans/US$ 2,600,000 (at least 100 loans to women-led SMEs)</t>
   </si>
   <si>
-    <t>https://open.undp.org/projects/00097774</t>
-  </si>
-  <si>
     <t>Electricity Access</t>
   </si>
   <si>
     <t xml:space="preserve">Number of beneficiaries using RE (including number of women) </t>
   </si>
   <si>
-    <t>https://open.undp.org/projects/00097775</t>
-  </si>
-  <si>
     <t>Energy (MW added)</t>
   </si>
   <si>
@@ -181,25 +166,16 @@
     <t>Renewable Energy</t>
   </si>
   <si>
-    <t>https://open.undp.org/projects/00097776</t>
-  </si>
-  <si>
     <t>Medium Enterprises</t>
   </si>
   <si>
     <t xml:space="preserve">Number of SWH systems facilitated by the project (in tourism facilities) </t>
   </si>
   <si>
-    <t>https://open.undp.org/projects/00097777</t>
-  </si>
-  <si>
     <t xml:space="preserve">Number of people with improved access to energy (including percentage of women) </t>
   </si>
   <si>
     <t>Target: 60% women out of 17867 people</t>
-  </si>
-  <si>
-    <t>https://open.undp.org/projects/00097778</t>
   </si>
   <si>
     <t>Campaign Participant</t>
@@ -210,9 +186,6 @@
   <si>
     <t>Beneficiary category: Marketing and Awareness Raising Campaign 
 Target: 60% women out of 3000000 people</t>
-  </si>
-  <si>
-    <t>https://open.undp.org/projects/00097779</t>
   </si>
   <si>
     <t>Other Energy Services</t>
@@ -226,19 +199,49 @@
 Budget for this line: Includes OPEX</t>
   </si>
   <si>
+    <t>https://open.undp.org/projects/00097770</t>
+  </si>
+  <si>
     <t>50 (15)</t>
   </si>
   <si>
+    <t>https://open.undp.org/projects/00097771</t>
+  </si>
+  <si>
+    <t>https://open.undp.org/projects/00097772</t>
+  </si>
+  <si>
+    <t>https://open.undp.org/projects/00097773</t>
+  </si>
+  <si>
+    <t>https://open.undp.org/projects/00097774</t>
+  </si>
+  <si>
     <t>16000 (10000)</t>
   </si>
   <si>
+    <t>https://open.undp.org/projects/00097775</t>
+  </si>
+  <si>
+    <t>https://open.undp.org/projects/00097776</t>
+  </si>
+  <si>
+    <t>https://open.undp.org/projects/00097777</t>
+  </si>
+  <si>
     <t>17867 (60%)</t>
   </si>
   <si>
+    <t>https://open.undp.org/projects/00097778</t>
+  </si>
+  <si>
     <t>Other</t>
   </si>
   <si>
     <t>3000000 (60%)</t>
+  </si>
+  <si>
+    <t>https://open.undp.org/projects/00097779</t>
   </si>
   <si>
     <t>Tier</t>
@@ -566,7 +569,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -619,6 +622,75 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -631,73 +703,10 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1006,516 +1015,519 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31B300DB-FA14-4D99-97C9-D812FBCEF4A4}">
-  <dimension ref="A1:S22"/>
+  <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="41"/>
-    <col min="2" max="2" width="20.7109375" style="41" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" style="41" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="41" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" style="41" customWidth="1"/>
-    <col min="6" max="6" width="45.28515625" style="41" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" style="41" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="41" customWidth="1"/>
-    <col min="9" max="9" width="47.42578125" style="41" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="41"/>
-    <col min="11" max="11" width="10.140625" style="41" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="41"/>
-    <col min="13" max="13" width="53.85546875" style="37" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="37"/>
-    <col min="15" max="15" width="13.5703125" style="37" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="37" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="37"/>
-    <col min="18" max="18" width="12.7109375" style="37" customWidth="1"/>
-    <col min="19" max="19" width="13.85546875" style="37" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="37"/>
+    <col min="2" max="2" width="20.7109375" style="37" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" style="37" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="37" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" style="37" customWidth="1"/>
+    <col min="6" max="6" width="45.28515625" style="37" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" style="37" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="37" customWidth="1"/>
+    <col min="9" max="9" width="47.42578125" style="37" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="37"/>
+    <col min="11" max="11" width="10.140625" style="37" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="37"/>
+    <col min="13" max="13" width="53.85546875" style="33" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="33"/>
+    <col min="15" max="15" width="13.5703125" style="33" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="33" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="33"/>
+    <col min="18" max="18" width="12.7109375" style="33" customWidth="1"/>
+    <col min="19" max="19" width="13.85546875" style="33" customWidth="1"/>
     <col min="20" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="30.75">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="29" t="s">
+      <c r="L1" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="M1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="28" t="s">
+      <c r="N1" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="30" t="s">
+      <c r="O1" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="30" t="s">
+      <c r="P1" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="30" t="s">
+      <c r="Q1" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="30" t="s">
+      <c r="R1" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="30" t="s">
+      <c r="S1" s="26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="45.75">
+    <row r="2" spans="1:19" ht="30.75">
       <c r="A2" s="15">
         <v>5476</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="32">
+      <c r="D2" s="6">
+        <f>SUM(D3:D13)</f>
+        <v>2819963</v>
+      </c>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+    </row>
+    <row r="3" spans="1:19" ht="45.75">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="28">
         <f>386750+104990.75</f>
         <v>491740.75</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E3" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F3" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="34">
+      <c r="G3" s="30">
         <v>0</v>
       </c>
-      <c r="H2" s="34">
+      <c r="H3" s="30">
         <v>1</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="I3" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="36"/>
-      <c r="L2" s="22" t="s">
+      <c r="K3" s="32"/>
+      <c r="L3" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="37" t="s">
+      <c r="O3" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="37" t="s">
+      <c r="P3" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="37" t="s">
+      <c r="R3" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="S2" s="37" t="s">
+      <c r="S3" s="33" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="30.75">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="34">
-        <v>0</v>
-      </c>
-      <c r="H3" s="34">
-        <v>50</v>
-      </c>
-      <c r="I3" s="35"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="38">
-        <v>0.3</v>
-      </c>
-      <c r="L3" s="23"/>
-    </row>
-    <row r="4" spans="1:19" ht="45.75">
+    <row r="4" spans="1:19" ht="30.75">
       <c r="A4" s="16"/>
       <c r="B4" s="16"/>
-      <c r="C4" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="34">
+      <c r="C4" s="27"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="30">
         <v>0</v>
       </c>
-      <c r="H4" s="34">
-        <v>1</v>
-      </c>
-      <c r="I4" s="35" t="s">
-        <v>34</v>
-      </c>
+      <c r="H4" s="30">
+        <v>50</v>
+      </c>
+      <c r="I4" s="31"/>
       <c r="J4" s="16"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="23"/>
-      <c r="O4" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="P4" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="R4" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="S4" s="37" t="s">
-        <v>27</v>
-      </c>
+      <c r="K4" s="34">
+        <v>0.3</v>
+      </c>
+      <c r="L4" s="19"/>
     </row>
     <row r="5" spans="1:19" ht="45.75">
       <c r="A5" s="16"/>
       <c r="B5" s="16"/>
-      <c r="C5" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="33" t="s">
+      <c r="C5" s="27"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="34">
+      <c r="F5" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="30">
         <v>0</v>
       </c>
-      <c r="H5" s="34">
+      <c r="H5" s="30">
         <v>1</v>
       </c>
-      <c r="I5" s="35" t="s">
-        <v>37</v>
+      <c r="I5" s="31" t="s">
+        <v>32</v>
       </c>
       <c r="J5" s="16"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="23"/>
-      <c r="O5" s="37" t="s">
+      <c r="K5" s="32"/>
+      <c r="L5" s="19"/>
+      <c r="O5" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="P5" s="37" t="s">
+      <c r="P5" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="R5" s="37" t="s">
+      <c r="R5" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="S5" s="37" t="s">
+      <c r="S5" s="33" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="45.75">
       <c r="A6" s="16"/>
       <c r="B6" s="16"/>
-      <c r="C6" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="32">
-        <f>130410+535090+104990.75</f>
-        <v>770490.75</v>
-      </c>
-      <c r="E6" s="33" t="s">
+      <c r="C6" s="27"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="34">
+      <c r="F6" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="30">
         <v>0</v>
       </c>
-      <c r="H6" s="34">
-        <v>2000</v>
-      </c>
-      <c r="I6" s="35" t="s">
-        <v>40</v>
+      <c r="H6" s="30">
+        <v>1</v>
+      </c>
+      <c r="I6" s="31" t="s">
+        <v>34</v>
       </c>
       <c r="J6" s="16"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="23"/>
-      <c r="O6" s="37" t="s">
+      <c r="K6" s="32"/>
+      <c r="L6" s="19"/>
+      <c r="O6" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="P6" s="37" t="s">
+      <c r="P6" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="R6" s="37" t="s">
+      <c r="R6" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="S6" s="37" t="s">
+      <c r="S6" s="33" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="45.75">
       <c r="A7" s="16"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="34">
+      <c r="C7" s="27"/>
+      <c r="D7" s="28">
+        <f>130410+535090+104990.75</f>
+        <v>770490.75</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="30">
         <v>0</v>
       </c>
-      <c r="H7" s="34">
-        <v>16000</v>
-      </c>
-      <c r="I7" s="35"/>
+      <c r="H7" s="30">
+        <v>2000</v>
+      </c>
+      <c r="I7" s="31" t="s">
+        <v>36</v>
+      </c>
       <c r="J7" s="16"/>
-      <c r="K7" s="39">
-        <v>0.625</v>
-      </c>
-      <c r="L7" s="23"/>
-      <c r="O7" s="37" t="s">
+      <c r="K7" s="32"/>
+      <c r="L7" s="19"/>
+      <c r="O7" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="P7" s="37" t="s">
-        <v>42</v>
+      <c r="P7" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="R7" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="S7" s="33" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="45.75">
       <c r="A8" s="16"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="32">
-        <f>1207750+104990.75</f>
-        <v>1312740.75</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="34">
+      <c r="C8" s="27"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="30">
         <v>0</v>
       </c>
-      <c r="H8" s="34">
-        <v>0.75</v>
-      </c>
-      <c r="I8" s="35"/>
+      <c r="H8" s="30">
+        <v>16000</v>
+      </c>
+      <c r="I8" s="31"/>
       <c r="J8" s="16"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="23"/>
-      <c r="O8" s="37" t="s">
+      <c r="K8" s="35">
+        <v>0.625</v>
+      </c>
+      <c r="L8" s="19"/>
+      <c r="O8" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="P8" s="37" t="s">
-        <v>47</v>
+      <c r="P8" s="33" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="45.75">
       <c r="A9" s="16"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="34">
+      <c r="C9" s="27"/>
+      <c r="D9" s="28">
+        <f>1207750+104990.75</f>
+        <v>1312740.75</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="30">
         <v>0</v>
       </c>
-      <c r="H9" s="34">
-        <v>100</v>
-      </c>
-      <c r="I9" s="35"/>
+      <c r="H9" s="30">
+        <v>0.75</v>
+      </c>
+      <c r="I9" s="31"/>
       <c r="J9" s="16"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="25"/>
-      <c r="O9" s="37" t="s">
+      <c r="K9" s="32"/>
+      <c r="L9" s="19"/>
+      <c r="O9" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="P9" s="37" t="s">
-        <v>42</v>
+      <c r="P9" s="33" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="45.75">
       <c r="A10" s="16"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="33" t="s">
+      <c r="C10" s="27"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="34">
+      <c r="F10" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="30">
         <v>0</v>
       </c>
-      <c r="H10" s="34">
-        <v>17867</v>
-      </c>
-      <c r="I10" s="35" t="s">
-        <v>53</v>
-      </c>
+      <c r="H10" s="30">
+        <v>100</v>
+      </c>
+      <c r="I10" s="31"/>
       <c r="J10" s="16"/>
-      <c r="K10" s="38">
-        <v>0.6</v>
-      </c>
-      <c r="L10" s="23"/>
-      <c r="O10" s="37" t="s">
+      <c r="K10" s="32"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="21"/>
+      <c r="O10" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="P10" s="37" t="s">
-        <v>42</v>
+      <c r="P10" s="33" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="45.75">
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" s="34">
+      <c r="C11" s="27"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="30">
         <v>0</v>
       </c>
-      <c r="H11" s="34">
+      <c r="H11" s="30">
+        <v>17867</v>
+      </c>
+      <c r="I11" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11" s="16"/>
+      <c r="K11" s="34">
+        <v>0.6</v>
+      </c>
+      <c r="L11" s="19"/>
+      <c r="O11" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="P11" s="33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="45.75">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="30">
+        <v>0</v>
+      </c>
+      <c r="H12" s="30">
         <v>3000000</v>
       </c>
-      <c r="I11" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="J11" s="16"/>
-      <c r="K11" s="38">
+      <c r="I12" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="J12" s="16"/>
+      <c r="K12" s="34">
         <v>0.6</v>
       </c>
-      <c r="L11" s="23"/>
-      <c r="O11" s="37" t="s">
+      <c r="L12" s="19"/>
+      <c r="O12" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="P11" s="37" t="s">
+      <c r="P12" s="33" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="60.75">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="32">
+    <row r="13" spans="1:19" ht="60.75">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="28">
         <f>140000+104990.75</f>
         <v>244990.75</v>
       </c>
-      <c r="E12" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="G12" s="34">
+      <c r="E13" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="30">
         <v>0</v>
       </c>
-      <c r="H12" s="40"/>
-      <c r="I12" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="J12" s="17"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="25"/>
-      <c r="O12" s="37" t="s">
+      <c r="H13" s="36"/>
+      <c r="I13" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="J13" s="17"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="21"/>
+      <c r="O13" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="P12" s="37" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="D13" s="42"/>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="D16" s="43"/>
-    </row>
-    <row r="22" spans="4:4">
-      <c r="D22" s="44"/>
+      <c r="P13" s="33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="D14" s="38"/>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="D17" s="39"/>
+    </row>
+    <row r="23" spans="4:4">
+      <c r="D23" s="40"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O12" xr:uid="{C97CD822-1EF8-494F-AE7E-632A70A49200}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O3:O13" xr:uid="{C97CD822-1EF8-494F-AE7E-632A70A49200}">
       <formula1>"Accelerating just energy transition, Close the gap on energy access, Scale up energy finance"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P12" xr:uid="{2B4404E3-F9B0-45C8-89E8-867976A3079F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P3:P13" xr:uid="{2B4404E3-F9B0-45C8-89E8-867976A3079F}">
       <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q12" xr:uid="{6064E3B9-EE0D-4E1D-B180-76D1CF743298}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q13" xr:uid="{6064E3B9-EE0D-4E1D-B180-76D1CF743298}">
       <formula1>"AMP, PUDC, Solar4Health, Action Opportunities, Italy UNDP Energy Partnership"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R12" xr:uid="{D01817DA-E906-464D-B4D9-01FC52C02F03}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3:R13" xr:uid="{D01817DA-E906-464D-B4D9-01FC52C02F03}">
       <formula1>"NDC Support, National Strategy, Legal Framework,Incentives and Support, Government Capacity-Building, Carbon Pricing and Monitoring, Financing Model, Business Model"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S12" xr:uid="{14444775-60E4-426C-AD07-19A693D2731D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:S13" xr:uid="{14444775-60E4-426C-AD07-19A693D2731D}">
       <formula1>"Electricity Access, Energy Efficiency, Renewable EnergyEnergy Infrastructure,   Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{4A6A4467-0422-4AB4-A603-5D4F24A751F4}"/>
-    <hyperlink ref="C3:C12" r:id="rId2" display="https://open.undp.org/projects/00097769" xr:uid="{E4FC4788-6E7B-485D-B3D7-BB2FFE8D0DA3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1525,7 +1537,7 @@
           <x14:formula1>
             <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E12</xm:sqref>
+          <xm:sqref>E3:E13</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1625,20 +1637,20 @@
         <v>19</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="8" t="s">
         <v>21</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G3" s="9">
         <v>0</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="I3" s="8"/>
     </row>
@@ -1650,14 +1662,14 @@
         <v>19</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="8" t="s">
         <v>21</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G4" s="9">
         <v>0</v>
@@ -1666,7 +1678,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="45">
@@ -1677,14 +1689,14 @@
         <v>19</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="8" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G5" s="9">
         <v>0</v>
@@ -1693,7 +1705,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="45">
@@ -1704,17 +1716,17 @@
         <v>19</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="D6" s="4">
         <f>130410+535090+104990.75</f>
         <v>770490.75</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G6" s="9">
         <v>0</v>
@@ -1723,7 +1735,7 @@
         <v>2000</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30">
@@ -1734,20 +1746,20 @@
         <v>19</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G7" s="9">
         <v>0</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I7" s="8"/>
     </row>
@@ -1759,17 +1771,17 @@
         <v>19</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="D8" s="4">
         <f>1207750+104990.75</f>
         <v>1312740.75</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G8" s="9">
         <v>0</v>
@@ -1787,14 +1799,14 @@
         <v>19</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G9" s="9">
         <v>0</v>
@@ -1812,23 +1824,23 @@
         <v>19</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G10" s="9">
         <v>0</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="45">
@@ -1839,23 +1851,23 @@
         <v>19</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="G11" s="9">
         <v>0</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="60">
@@ -1866,17 +1878,17 @@
         <v>19</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D12" s="4">
         <f>140000+104990.75</f>
         <v>244990.75</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G12" s="9">
         <v>0</v>
@@ -1885,7 +1897,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1947,27 +1959,27 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="41" t="s">
         <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="18"/>
+      <c r="A3" s="41"/>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="18"/>
+      <c r="A4" s="41"/>
       <c r="B4" t="s">
         <v>72</v>
       </c>
@@ -1976,7 +1988,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="42" t="s">
         <v>74</v>
       </c>
       <c r="B5" t="s">
@@ -1987,7 +1999,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="19"/>
+      <c r="A6" s="42"/>
       <c r="B6" t="s">
         <v>77</v>
       </c>
@@ -1996,7 +2008,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="19"/>
+      <c r="A7" s="42"/>
       <c r="B7" t="s">
         <v>79</v>
       </c>
@@ -2005,7 +2017,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="19"/>
+      <c r="A8" s="42"/>
       <c r="B8" t="s">
         <v>81</v>
       </c>
@@ -2014,27 +2026,27 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="19"/>
+      <c r="A9" s="42"/>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="43" t="s">
         <v>84</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="20"/>
+      <c r="A11" s="43"/>
       <c r="B11" t="s">
         <v>86</v>
       </c>
@@ -2043,18 +2055,18 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="44" t="s">
         <v>88</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="21"/>
+      <c r="A13" s="44"/>
       <c r="B13" t="s">
         <v>90</v>
       </c>
@@ -2063,9 +2075,9 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="21"/>
+      <c r="A14" s="44"/>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
         <v>92</v>
@@ -2084,10 +2096,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C16" t="s">
         <v>95</v>
@@ -2105,12 +2117,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2363,18 +2377,16 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED27DB37-F879-4BD0-B767-D6A66DA4F9F8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AC3D2A-DE44-44DA-AD33-132B1E30BC8B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2382,5 +2394,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AC3D2A-DE44-44DA-AD33-132B1E30BC8B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED27DB37-F879-4BD0-B767-D6A66DA4F9F8}"/>
 </file>
--- a/01_Input/00_CO Validation/Tajikistan - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Tajikistan - Energy Projects.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27016"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27226"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="105" documentId="13_ncr:1_{4D798623-4A28-42C6-9D5C-97D18ADE5574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0CCD1CA-B6C5-4760-A3E4-056CBE40B3B8}"/>
+  <xr:revisionPtr revIDLastSave="155" documentId="13_ncr:1_{4D798623-4A28-42C6-9D5C-97D18ADE5574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68FDA320-63C1-4102-AC7C-C0AB5D9117E1}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="107">
   <si>
     <t>Project ID</t>
   </si>
@@ -73,10 +73,7 @@
     <t>Gender (% female)</t>
   </si>
   <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Comments</t>
+    <t>VF or Non-VF</t>
   </si>
   <si>
     <t>Tag</t>
@@ -97,15 +94,21 @@
     <t>Indirect Taxonomy</t>
   </si>
   <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Policy or Regulatory Framework</t>
+  </si>
+  <si>
+    <t>Policy Population</t>
+  </si>
+  <si>
     <t>Green Energy SME Development Project</t>
   </si>
   <si>
     <t>https://open.undp.org/projects/00097769</t>
   </si>
   <si>
-    <t>Policy or Regulatory Framework</t>
-  </si>
-  <si>
     <t>Status of by-laws enabling implementation of the Energy Efficiency Law</t>
   </si>
   <si>
@@ -127,7 +130,13 @@
     <t>Legal Framework</t>
   </si>
   <si>
-    <t>Capacity Training</t>
+    <t>National</t>
+  </si>
+  <si>
+    <t>Tier 3</t>
+  </si>
+  <si>
+    <t>Capacity Building Training</t>
   </si>
   <si>
     <t xml:space="preserve">Number of officials trained (including number of women) </t>
@@ -139,12 +148,21 @@
     <t xml:space="preserve">Target: 2.0 MW. Final version of a by-law providing a financial support mechanism for green energy investment approved </t>
   </si>
   <si>
+    <t>Renewable Energy</t>
+  </si>
+  <si>
+    <t>Incentives and Support</t>
+  </si>
+  <si>
     <t xml:space="preserve">Status of system of compliance checks and enforcement of performance standard for selected EE/RE products </t>
   </si>
   <si>
     <t>Target: Final version approved by decision-makers</t>
   </si>
   <si>
+    <t>Market Intervention</t>
+  </si>
+  <si>
     <t xml:space="preserve">Number and volume (US$) of green loans approved for SWH and other targeted EE/RE products (including those for women-led SMEs) </t>
   </si>
   <si>
@@ -157,13 +175,16 @@
     <t xml:space="preserve">Number of beneficiaries using RE (including number of women) </t>
   </si>
   <si>
+    <t>Unknown</t>
+  </si>
+  <si>
     <t>Energy (MW added)</t>
   </si>
   <si>
     <t xml:space="preserve">Installed new RE-power generation capacity, MW </t>
   </si>
   <si>
-    <t>Renewable Energy</t>
+    <t>Close the gap on energy access</t>
   </si>
   <si>
     <t>Medium Enterprises</t>
@@ -244,58 +265,73 @@
     <t>https://open.undp.org/projects/00097779</t>
   </si>
   <si>
-    <t>Tier</t>
-  </si>
-  <si>
-    <t>Explanation</t>
-  </si>
-  <si>
-    <t>Access to Energy</t>
-  </si>
-  <si>
-    <t>Access to electricity (direct access to electricity, lighting,  heating, cooling etc.)</t>
-  </si>
-  <si>
-    <t>Access to energy through installed renewable energy capacity (solar PV, hydro, wind, etc. )</t>
+    <t>Number of people, disaggregated by sex, who gain access to clean electricity (direct access to electricity, lighting, cooling, etc.) </t>
+  </si>
+  <si>
+    <t>Number of MW installed capacity</t>
   </si>
   <si>
     <t>Clean Cooking</t>
   </si>
   <si>
-    <t>Access to clean cooking (direct access to clean cook stoves, clean fuels, biomass, etc.)</t>
-  </si>
-  <si>
-    <t>Productive Use of Energy</t>
-  </si>
-  <si>
-    <t>Agricultural Services</t>
-  </si>
-  <si>
-    <t>Access to agricultural energy services (irrigation with solar pumps, heating systems for processing food, etc. )</t>
+    <t>Number of people who gain access to clean cooking (direct access to clean cook stoves, clean fuels, biomass, etc.).</t>
+  </si>
+  <si>
+    <t>Clean Heating</t>
+  </si>
+  <si>
+    <t>Number of people who gain access to clean heating (direct access to clean electric heaters, clean fuels, etc.).</t>
+  </si>
+  <si>
+    <t>Agriculture and Food System</t>
+  </si>
+  <si>
+    <t>Number of people who gain access to clean, affordable, and sustainable electricity for agricultural and food system activities (direct access to power machines for crop, processing, milling, grinding, de-husking, pressing, canning, sealing and packaging electricity, heating, cooling, solar water pumping for irrigation etc.) </t>
   </si>
   <si>
     <t>Health Services</t>
   </si>
   <si>
-    <t>Access to health services powered by solar PV and energy efficient systems such as hospitals</t>
+    <t>Number of people who gain access to health care facilities (direct access to electricity and heating systems for clinics, hospitals, health centers etc.) </t>
   </si>
   <si>
     <t>Water Services</t>
   </si>
   <si>
-    <t>Access to solar water pumps</t>
+    <t>Number of people who gain access to water services (powering water pumps, water distributions, waste management, etc.).  </t>
   </si>
   <si>
     <t>Education Services</t>
   </si>
   <si>
-    <t>Access to education services trough clean energy systems</t>
+    <t>Number of people who gain access to education services through clean energy systems (including students, teachers, etc.) </t>
+  </si>
+  <si>
+    <t>Transportation and E-mobility Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of MJ saved from transport and e-mobility interventions (e.g., electric vehicles, charging stations, etc.)  </t>
+  </si>
+  <si>
+    <t>Energy Efficiency Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of MJ saved from energy efficiency interventions (e.g., building efficiency, industries, etc.)  </t>
+  </si>
+  <si>
+    <t>Energy Infrastructure Services</t>
+  </si>
+  <si>
+    <t>Number of people who benefits from energy infrastructure interventions (streetlight, transmission, and distribution lines, etc.) </t>
   </si>
   <si>
     <t>Access to other service (electric vehicles, industries efficiency etc.)</t>
   </si>
   <si>
-    <t>Market Development</t>
+    <t xml:space="preserve">Financing support </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Support for the development of market ecosystem </t>
   </si>
   <si>
     <t>Support for the development of medium enterprises in the energy transition market</t>
@@ -307,10 +343,7 @@
     <t>Support for the development of small enterprises in the energy transition market</t>
   </si>
   <si>
-    <t>Capacity Building</t>
-  </si>
-  <si>
-    <t>Individuals who participate in trainings for energy activities</t>
+    <t>Number of people who benefits from training for enterprises on the energy business and energy finance. </t>
   </si>
   <si>
     <t>Entrepreneurship Training</t>
@@ -319,13 +352,13 @@
     <t>Training for enterprises on the energy business is assumed to result in at least 100 direct beneficiaries</t>
   </si>
   <si>
+    <t xml:space="preserve">Volume of investment (US dollars) leverage removing barriers to private and public investment in clean, reliable, affordable, and sustainable energy solutions and energy efficiency for social infrastructure, productive use of electricity and other services </t>
+  </si>
+  <si>
     <t>Individuals who participate in advocacy and campaign on energy</t>
   </si>
   <si>
-    <t>Policy and Regulator Frameworks</t>
-  </si>
-  <si>
-    <t>Policies and regulatory framework can have far-reaching impacts on the energy access situation in countries</t>
+    <t xml:space="preserve">Number of people supported by policy and regulatory framework development on clean, affordable, and sustainable energy </t>
   </si>
   <si>
     <t>Any other type of beneficiary (please specify justification in Notes)</t>
@@ -339,12 +372,18 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -377,13 +416,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -392,48 +438,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFAFFFFD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7FFFFB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF42FFFA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00E1DA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00DAD3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00BDB7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -563,18 +573,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -583,7 +603,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -592,25 +612,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -631,82 +645,92 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1015,519 +1039,752 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31B300DB-FA14-4D99-97C9-D812FBCEF4A4}">
-  <dimension ref="A1:S23"/>
+  <dimension ref="A1:AD22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="37"/>
-    <col min="2" max="2" width="20.7109375" style="37" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" style="37" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" style="37" customWidth="1"/>
-    <col min="6" max="6" width="45.28515625" style="37" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" style="37" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="37" customWidth="1"/>
-    <col min="9" max="9" width="47.42578125" style="37" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="37"/>
-    <col min="11" max="11" width="10.140625" style="37" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="37"/>
-    <col min="13" max="13" width="53.85546875" style="33" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="33"/>
-    <col min="15" max="15" width="13.5703125" style="33" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="33" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="33"/>
-    <col min="18" max="18" width="12.7109375" style="33" customWidth="1"/>
-    <col min="19" max="19" width="13.85546875" style="33" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="9.140625" style="31"/>
+    <col min="2" max="2" width="20.7109375" style="31" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" style="31" customWidth="1"/>
+    <col min="6" max="6" width="45.28515625" style="31" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" style="31" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="31" customWidth="1"/>
+    <col min="9" max="9" width="47.42578125" style="31" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="31"/>
+    <col min="11" max="11" width="10.140625" style="31" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" style="31" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="27"/>
+    <col min="14" max="14" width="13.5703125" style="27" customWidth="1"/>
+    <col min="15" max="15" width="17.5703125" style="27" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="27" customWidth="1"/>
+    <col min="17" max="17" width="21.5703125" style="27" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.85546875" style="27" customWidth="1"/>
+    <col min="20" max="20" width="30.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="30.75">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:30" ht="30.75">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="L1" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="N1" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="26" t="s">
+      <c r="O1" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="26" t="s">
+      <c r="P1" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="26" t="s">
+      <c r="Q1" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="26" t="s">
+      <c r="R1" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="26" t="s">
+      <c r="S1" s="41" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" ht="30.75">
-      <c r="A2" s="15">
+      <c r="T1" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="41" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" ht="60.75">
+      <c r="A2" s="12">
         <v>5476</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="6">
-        <f>SUM(D3:D13)</f>
-        <v>2819963</v>
-      </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-    </row>
-    <row r="3" spans="1:19" ht="45.75">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="28">
+      <c r="B2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="22">
         <f>386750+104990.75</f>
         <v>491740.75</v>
       </c>
-      <c r="E3" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="30">
+      <c r="E2" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="24">
         <v>0</v>
       </c>
-      <c r="H3" s="30">
+      <c r="H2" s="24">
         <v>1</v>
       </c>
-      <c r="I3" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="15" t="s">
+      <c r="I2" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="32"/>
-      <c r="L3" s="18" t="s">
+      <c r="J2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="33" t="s">
+      <c r="K2" s="26"/>
+      <c r="L2" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="33" t="s">
+      <c r="M2" s="35"/>
+      <c r="N2" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="R3" s="33" t="s">
+      <c r="O2" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="S3" s="33" t="s">
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="S2" s="44"/>
+      <c r="T2" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="U2" s="44"/>
+      <c r="W2" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" ht="30.75">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="29" t="s">
+      <c r="Z2" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA2" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="AD2" s="27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" ht="45.75">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="24">
+        <v>0</v>
+      </c>
+      <c r="H3" s="24">
+        <v>50</v>
+      </c>
+      <c r="I3" s="25"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="28">
+        <v>0.3</v>
+      </c>
+      <c r="L3" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="35"/>
+      <c r="N3" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="44"/>
+      <c r="W3" s="16"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="27"/>
+      <c r="AC3" s="27"/>
+      <c r="AD3" s="27"/>
+    </row>
+    <row r="4" spans="1:30" ht="60.75">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="24">
+        <v>0</v>
+      </c>
+      <c r="H4" s="24">
+        <v>1</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="13"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="35"/>
+      <c r="N4" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="R4" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="S4" s="44"/>
+      <c r="T4" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="30">
+      <c r="U4" s="44"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="27"/>
+      <c r="Y4" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z4" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA4" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB4" s="27"/>
+      <c r="AC4" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD4" s="27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="60.75">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="24">
         <v>0</v>
       </c>
-      <c r="H4" s="30">
-        <v>50</v>
-      </c>
-      <c r="I4" s="31"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="34">
-        <v>0.3</v>
-      </c>
-      <c r="L4" s="19"/>
-    </row>
-    <row r="5" spans="1:19" ht="45.75">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="29" t="s">
+      <c r="H5" s="24">
+        <v>1</v>
+      </c>
+      <c r="I5" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="13"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="35"/>
+      <c r="N5" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="44"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="44"/>
+      <c r="W5" s="16"/>
+      <c r="X5" s="27"/>
+      <c r="Y5" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z5" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA5" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="30">
-        <v>0</v>
-      </c>
-      <c r="H5" s="30">
-        <v>1</v>
-      </c>
-      <c r="I5" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="16"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="19"/>
-      <c r="O5" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="P5" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="R5" s="33" t="s">
+      <c r="AB5" s="27"/>
+      <c r="AC5" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD5" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="S5" s="33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="45.75">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="30">
-        <v>0</v>
-      </c>
-      <c r="H6" s="30">
-        <v>1</v>
-      </c>
-      <c r="I6" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="16"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="19"/>
-      <c r="O6" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="P6" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="R6" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="S6" s="33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="45.75">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="28">
+    </row>
+    <row r="6" spans="1:30" ht="60.75">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="22">
         <f>130410+535090+104990.75</f>
         <v>770490.75</v>
       </c>
-      <c r="E7" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="30">
+      <c r="E6" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="24">
         <v>0</v>
       </c>
-      <c r="H7" s="30">
-        <v>2000</v>
-      </c>
-      <c r="I7" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="J7" s="16"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="19"/>
-      <c r="O7" s="33" t="s">
+      <c r="H6" s="24">
+        <v>2600000</v>
+      </c>
+      <c r="I6" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="13"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="P7" s="33" t="s">
+      <c r="M6" s="35"/>
+      <c r="N6" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="R7" s="33" t="s">
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="44"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="44"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="27"/>
+      <c r="Y6" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z6" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="S7" s="33" t="s">
+      <c r="AA6" s="35"/>
+      <c r="AB6" s="27"/>
+      <c r="AC6" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD6" s="27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" ht="60.75">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="24">
+        <v>0</v>
+      </c>
+      <c r="H7" s="24">
+        <v>16000</v>
+      </c>
+      <c r="I7" s="25"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="29">
+        <v>0.625</v>
+      </c>
+      <c r="L7" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="35"/>
+      <c r="N7" s="43" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" ht="45.75">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="30">
-        <v>0</v>
-      </c>
-      <c r="H8" s="30">
-        <v>16000</v>
-      </c>
-      <c r="I8" s="31"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="35">
-        <v>0.625</v>
-      </c>
-      <c r="L8" s="19"/>
-      <c r="O8" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="P8" s="33" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="45.75">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="28">
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="T7" s="35"/>
+      <c r="U7" s="44"/>
+      <c r="W7" s="16"/>
+      <c r="X7" s="27"/>
+      <c r="Y7" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z7" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA7" s="35"/>
+      <c r="AB7" s="27"/>
+      <c r="AC7" s="27"/>
+      <c r="AD7" s="27"/>
+    </row>
+    <row r="8" spans="1:30" ht="60.75">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="22">
         <f>1207750+104990.75</f>
         <v>1312740.75</v>
       </c>
-      <c r="E9" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="30">
+      <c r="E8" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="24">
         <v>0</v>
       </c>
-      <c r="H9" s="30">
+      <c r="H8" s="24">
         <v>0.75</v>
       </c>
-      <c r="I9" s="31"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="19"/>
-      <c r="O9" s="33" t="s">
+      <c r="I8" s="25"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="P9" s="33" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="45.75">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="29" t="s">
+      <c r="M8" s="35"/>
+      <c r="N8" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="T8" s="35"/>
+      <c r="U8" s="44"/>
+      <c r="W8" s="16"/>
+      <c r="X8" s="27"/>
+      <c r="Y8" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z8" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA8" s="35"/>
+      <c r="AB8" s="27"/>
+      <c r="AC8" s="27"/>
+      <c r="AD8" s="27"/>
+    </row>
+    <row r="9" spans="1:30" ht="60.75">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="24">
+        <v>0</v>
+      </c>
+      <c r="H9" s="24">
+        <v>100</v>
+      </c>
+      <c r="I9" s="25"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="35"/>
+      <c r="N9" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="35"/>
+      <c r="S9" s="44"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="44"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="27"/>
+      <c r="Y9" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z9" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="30">
+      <c r="AA9" s="35"/>
+      <c r="AB9" s="27"/>
+      <c r="AC9" s="27"/>
+      <c r="AD9" s="27"/>
+    </row>
+    <row r="10" spans="1:30" ht="60.75">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="24">
         <v>0</v>
       </c>
-      <c r="H10" s="30">
-        <v>100</v>
-      </c>
-      <c r="I10" s="31"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="21"/>
-      <c r="O10" s="33" t="s">
+      <c r="H10" s="24">
+        <v>17867</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" s="13"/>
+      <c r="K10" s="28">
+        <v>0.6</v>
+      </c>
+      <c r="L10" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="P10" s="33" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="45.75">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" s="30">
+      <c r="M10" s="35"/>
+      <c r="N10" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="T10" s="35"/>
+      <c r="U10" s="44"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="27"/>
+      <c r="Y10" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z10" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA10" s="35"/>
+      <c r="AB10" s="27"/>
+      <c r="AC10" s="27"/>
+      <c r="AD10" s="27"/>
+    </row>
+    <row r="11" spans="1:30" ht="60.75">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="24">
         <v>0</v>
       </c>
-      <c r="H11" s="30">
-        <v>17867</v>
-      </c>
-      <c r="I11" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="J11" s="16"/>
-      <c r="K11" s="34">
+      <c r="H11" s="24">
+        <v>3000000</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="J11" s="13"/>
+      <c r="K11" s="28">
         <v>0.6</v>
       </c>
-      <c r="L11" s="19"/>
-      <c r="O11" s="33" t="s">
+      <c r="L11" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="P11" s="33" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="45.75">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12" s="30">
-        <v>0</v>
-      </c>
-      <c r="H12" s="30">
-        <v>3000000</v>
-      </c>
-      <c r="I12" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="J12" s="16"/>
-      <c r="K12" s="34">
-        <v>0.6</v>
-      </c>
-      <c r="L12" s="19"/>
-      <c r="O12" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="P12" s="33" t="s">
+      <c r="M11" s="35"/>
+      <c r="N11" s="43" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" ht="60.75">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="28">
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="44"/>
+      <c r="T11" s="35"/>
+      <c r="U11" s="44"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="27"/>
+      <c r="Y11" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z11" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA11" s="35"/>
+      <c r="AB11" s="27"/>
+      <c r="AC11" s="27"/>
+      <c r="AD11" s="27"/>
+    </row>
+    <row r="12" spans="1:30" ht="60.75">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22">
         <f>140000+104990.75</f>
         <v>244990.75</v>
       </c>
-      <c r="E13" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="30">
+      <c r="E12" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="24">
         <v>0</v>
       </c>
-      <c r="H13" s="36"/>
-      <c r="I13" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="J13" s="17"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="21"/>
-      <c r="O13" s="33" t="s">
+      <c r="H12" s="30"/>
+      <c r="I12" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="J12" s="14"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="P13" s="33" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="D14" s="38"/>
-    </row>
-    <row r="17" spans="4:4">
-      <c r="D17" s="39"/>
-    </row>
-    <row r="23" spans="4:4">
-      <c r="D23" s="40"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="44"/>
+      <c r="T12" s="35"/>
+      <c r="U12" s="44"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="27"/>
+      <c r="Y12" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z12" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA12" s="35"/>
+      <c r="AB12" s="27"/>
+      <c r="AC12" s="27"/>
+      <c r="AD12" s="27"/>
+    </row>
+    <row r="13" spans="1:30">
+      <c r="D13" s="32"/>
+    </row>
+    <row r="16" spans="1:30">
+      <c r="D16" s="33"/>
+    </row>
+    <row r="22" spans="4:4">
+      <c r="D22" s="34"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O3:O13" xr:uid="{C97CD822-1EF8-494F-AE7E-632A70A49200}">
+  <phoneticPr fontId="5" type="noConversion"/>
+  <dataValidations count="12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2:Y12 N2:N12" xr:uid="{C97CD822-1EF8-494F-AE7E-632A70A49200}">
       <formula1>"Accelerating just energy transition, Close the gap on energy access, Scale up energy finance"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P3:P13" xr:uid="{2B4404E3-F9B0-45C8-89E8-867976A3079F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2:Z12" xr:uid="{2B4404E3-F9B0-45C8-89E8-867976A3079F}">
       <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q13" xr:uid="{6064E3B9-EE0D-4E1D-B180-76D1CF743298}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB2:AB12 P2:P12" xr:uid="{6064E3B9-EE0D-4E1D-B180-76D1CF743298}">
       <formula1>"AMP, PUDC, Solar4Health, Action Opportunities, Italy UNDP Energy Partnership"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3:R13" xr:uid="{D01817DA-E906-464D-B4D9-01FC52C02F03}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC12 Q2:Q12" xr:uid="{D01817DA-E906-464D-B4D9-01FC52C02F03}">
       <formula1>"NDC Support, National Strategy, Legal Framework,Incentives and Support, Government Capacity-Building, Carbon Pricing and Monitoring, Financing Model, Business Model"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:S13" xr:uid="{14444775-60E4-426C-AD07-19A693D2731D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2:AD12" xr:uid="{14444775-60E4-426C-AD07-19A693D2731D}">
       <formula1>"Electricity Access, Energy Efficiency, Renewable EnergyEnergy Infrastructure,   Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA12" xr:uid="{64704F51-D586-43E9-BFB7-089DC6970181}">
+      <formula1>"Tier 1, Tier 2, Tier 3"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O12" xr:uid="{AF742A2B-B13D-446F-8652-9C527C8A3A12}">
+      <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy, Overall"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M12" xr:uid="{A7CC9610-9D29-4412-809C-E2C9C138B228}">
+      <formula1>"Finance, Gender, Efficiency, Just, Health"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T12" xr:uid="{60F940FA-6F53-4AA9-A669-62EC0E1A1D1E}">
+      <formula1>"National, Regional, City, Community"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L12" xr:uid="{1BF8D641-8EF8-4F91-B637-675C09CC5E2F}">
+      <formula1>"Non-VF, VF"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R12" xr:uid="{44D6DB9D-AD95-4910-83F6-E40659F0F615}">
+      <formula1>"Electricity Access, Energy Efficiency, Renewable Energy, Infrastructure,  Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid, Research &amp; Innovation, Grant &amp; Investment"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S12" xr:uid="{50012757-2500-439F-903C-6D9310A53A71}">
+      <formula1>"Solar, Wind, Bioenergy, Hydro, Geothermal, Waste, Some Sources, Other, Unknown"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{4A6A4467-0422-4AB4-A603-5D4F24A751F4}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{7E6A478A-DFA9-41F3-9754-C70FF9A26E23}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1535,9 +1792,9 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A9158108-9601-44CA-944F-BD0B26B7AD50}">
           <x14:formula1>
-            <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$22</xm:f>
           </x14:formula1>
-          <xm:sqref>E3:E13</xm:sqref>
+          <xm:sqref>E2:E12</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1555,365 +1812,365 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="20.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="45.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="47.42578125" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="20.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="45.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="47.42578125" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30.75">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>5476</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="4">
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="3">
         <f>386750+104990.75</f>
         <v>491740.75</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="8">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>1</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="30">
+      <c r="A3" s="6">
+        <v>5476</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="9">
+      <c r="C3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="8">
         <v>0</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H3" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:10" ht="45">
+      <c r="A4" s="6">
+        <v>5476</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8">
         <v>1</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="30">
-      <c r="A3" s="7">
+      <c r="I4" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="45">
+      <c r="A5" s="6">
         <v>5476</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="8" t="s">
+      <c r="F5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="45">
+      <c r="A6" s="6">
+        <v>5476</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="9">
-        <v>0</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="I3" s="8"/>
-    </row>
-    <row r="4" spans="1:10" ht="45">
-      <c r="A4" s="7">
-        <v>5476</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="9">
-        <v>0</v>
-      </c>
-      <c r="H4" s="9">
-        <v>1</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="45">
-      <c r="A5" s="7">
-        <v>5476</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="9">
-        <v>0</v>
-      </c>
-      <c r="H5" s="9">
-        <v>1</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="45">
-      <c r="A6" s="7">
-        <v>5476</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="4">
+      <c r="C6" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="3">
         <f>130410+535090+104990.75</f>
         <v>770490.75</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="9">
+      <c r="E6" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="8">
         <v>0</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="8">
         <v>2000</v>
       </c>
-      <c r="I6" s="8" t="s">
-        <v>36</v>
+      <c r="I6" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>5476</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="9">
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="8">
         <v>0</v>
       </c>
-      <c r="H7" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="I7" s="8"/>
+      <c r="H7" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:10" ht="30">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>5476</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="4">
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="3">
         <f>1207750+104990.75</f>
         <v>1312740.75</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="9">
+      <c r="E8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="8">
         <v>0</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="8">
         <v>0.75</v>
       </c>
-      <c r="I8" s="8"/>
+      <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:10" ht="30">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>5476</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="9">
+      <c r="B9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="8">
         <v>0</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="8">
         <v>100</v>
       </c>
-      <c r="I9" s="8"/>
+      <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="30">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <v>5476</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" s="9">
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="8">
         <v>0</v>
       </c>
-      <c r="H10" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>45</v>
+      <c r="H10" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="45">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <v>5476</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="9">
+      <c r="B11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="8">
         <v>0</v>
       </c>
-      <c r="H11" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>48</v>
+      <c r="H11" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="60">
-      <c r="A12" s="7">
+      <c r="A12" s="6">
         <v>5476</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="4">
+      <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="3">
         <f>140000+104990.75</f>
         <v>244990.75</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" s="9">
+      <c r="E12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="8">
         <v>0</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="9">
         <v>1</v>
       </c>
-      <c r="I12" s="8" t="s">
-        <v>51</v>
+      <c r="I12" s="7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <f>SUM(D2:D12)</f>
         <v>2819963</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="D16" s="4"/>
+      <c r="D16" s="3"/>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="11"/>
+      <c r="D22" s="10"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{84BE9C6B-0CD4-477F-B7F4-99F4EF73B892}"/>
     <hyperlink ref="C3:C12" r:id="rId2" display="https://open.undp.org/projects/00097769" xr:uid="{02E48107-95F3-4086-AD03-1682D91F2324}"/>
@@ -1924,7 +2181,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
-            <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$16</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E12</xm:sqref>
         </x14:dataValidation>
@@ -1936,182 +2193,194 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="52.7109375" customWidth="1"/>
+    <col min="1" max="2" width="52.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="41"/>
-      <c r="B3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B1" s="36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="45.75">
+      <c r="A2" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30.75">
+      <c r="A4" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30.75">
+      <c r="A5" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="91.5">
+      <c r="A6" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="45.75">
+      <c r="A7" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="45.75">
+      <c r="A8" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="45.75">
+      <c r="A9" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30.75">
+      <c r="A10" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30.75">
+      <c r="A11" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="45.75">
+      <c r="A12" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="30.75">
+      <c r="A13" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="46" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="46" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="30.75">
+      <c r="A15" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="46" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="30.75">
+      <c r="A16" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="46" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30.75">
+      <c r="A17" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30.75">
+      <c r="A18" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" s="46" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="76.5">
+      <c r="A19" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="46" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30.75">
+      <c r="A20" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="46" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="45.75">
+      <c r="A21" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="47" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30.75">
+      <c r="A22" s="45" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="41"/>
-      <c r="B4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="42"/>
-      <c r="B6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="42"/>
-      <c r="B7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="42"/>
-      <c r="B8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="42"/>
-      <c r="B9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="43" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="43"/>
-      <c r="B11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="44"/>
-      <c r="B13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="44"/>
-      <c r="B14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" t="s">
-        <v>95</v>
+      <c r="B22" s="46" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A14"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2128,6 +2397,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
@@ -2376,23 +2654,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AC3D2A-DE44-44DA-AD33-132B1E30BC8B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86C6D015-974A-4D7C-A3B3-2F90FB0753ED}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED27DB37-F879-4BD0-B767-D6A66DA4F9F8}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED27DB37-F879-4BD0-B767-D6A66DA4F9F8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86C6D015-974A-4D7C-A3B3-2F90FB0753ED}"/>
 </file>
--- a/01_Input/00_CO Validation/Tajikistan - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Tajikistan - Energy Projects.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27406"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="155" documentId="13_ncr:1_{4D798623-4A28-42C6-9D5C-97D18ADE5574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68FDA320-63C1-4102-AC7C-C0AB5D9117E1}"/>
+  <xr:revisionPtr revIDLastSave="166" documentId="13_ncr:1_{4D798623-4A28-42C6-9D5C-97D18ADE5574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A1DC20D-7ADC-4780-B64B-813C986B76F7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="107">
   <si>
     <t>Project ID</t>
   </si>
@@ -97,6 +97,9 @@
     <t>Technology</t>
   </si>
   <si>
+    <t>Market Intervention</t>
+  </si>
+  <si>
     <t>Policy or Regulatory Framework</t>
   </si>
   <si>
@@ -133,9 +136,6 @@
     <t>National</t>
   </si>
   <si>
-    <t>Tier 3</t>
-  </si>
-  <si>
     <t>Capacity Building Training</t>
   </si>
   <si>
@@ -160,13 +160,13 @@
     <t>Target: Final version approved by decision-makers</t>
   </si>
   <si>
-    <t>Market Intervention</t>
-  </si>
-  <si>
     <t xml:space="preserve">Number and volume (US$) of green loans approved for SWH and other targeted EE/RE products (including those for women-led SMEs) </t>
   </si>
   <si>
     <t>Target: 2,000 loans/US$ 2,600,000 (at least 100 loans to women-led SMEs)</t>
+  </si>
+  <si>
+    <t>Business Model</t>
   </si>
   <si>
     <t>Electricity Access</t>
@@ -443,7 +443,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -534,26 +534,6 @@
         <color rgb="FF000000"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -573,26 +553,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -636,15 +603,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -666,19 +624,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -687,15 +642,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -708,21 +654,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1039,730 +989,577 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31B300DB-FA14-4D99-97C9-D812FBCEF4A4}">
-  <dimension ref="A1:AD22"/>
+  <dimension ref="A1:V12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="31"/>
-    <col min="2" max="2" width="20.7109375" style="31" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" style="31" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" style="31" customWidth="1"/>
-    <col min="6" max="6" width="45.28515625" style="31" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" style="31" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="31" customWidth="1"/>
-    <col min="9" max="9" width="47.42578125" style="31" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="31"/>
-    <col min="11" max="11" width="10.140625" style="31" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" style="31" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="27"/>
-    <col min="14" max="14" width="13.5703125" style="27" customWidth="1"/>
-    <col min="15" max="15" width="17.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="27" customWidth="1"/>
-    <col min="17" max="17" width="21.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.85546875" style="27" customWidth="1"/>
-    <col min="20" max="20" width="30.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9.140625" style="27"/>
+    <col min="2" max="2" width="20.7109375" style="27" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" style="27" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" style="27" customWidth="1"/>
+    <col min="6" max="6" width="45.28515625" style="27" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" style="27" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="27" customWidth="1"/>
+    <col min="9" max="9" width="47.42578125" style="27" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="27"/>
+    <col min="11" max="11" width="10.140625" style="27" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="36"/>
+    <col min="14" max="14" width="13.5703125" style="36" customWidth="1"/>
+    <col min="15" max="15" width="17.5703125" style="36" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="36" customWidth="1"/>
+    <col min="17" max="17" width="21.5703125" style="36" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.140625" style="36" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.85546875" style="36" customWidth="1"/>
+    <col min="20" max="20" width="21.5703125" style="36" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="30.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="30.75">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:22" ht="30.75">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="38" t="s">
+      <c r="L1" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="39" t="s">
+      <c r="M1" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="38" t="s">
+      <c r="N1" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="38" t="s">
+      <c r="O1" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="39" t="s">
+      <c r="P1" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="39" t="s">
+      <c r="Q1" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="40" t="s">
+      <c r="R1" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="41" t="s">
+      <c r="S1" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="40" t="s">
+      <c r="T1" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="41" t="s">
+      <c r="U1" s="32" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:30" ht="60.75">
+      <c r="V1" s="33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="45.75">
       <c r="A2" s="12">
         <v>5476</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="22">
+      <c r="C2" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="19">
         <f>386750+104990.75</f>
         <v>491740.75</v>
       </c>
-      <c r="E2" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="24">
+      <c r="E2" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="21">
         <v>0</v>
       </c>
-      <c r="H2" s="24">
+      <c r="H2" s="21">
         <v>1</v>
       </c>
-      <c r="I2" s="25" t="s">
-        <v>24</v>
+      <c r="I2" s="22" t="s">
+        <v>25</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="26"/>
-      <c r="L2" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="35"/>
-      <c r="N2" s="43" t="s">
+      <c r="K2" s="23"/>
+      <c r="L2" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="35" t="s">
+      <c r="M2" s="28"/>
+      <c r="N2" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35" t="s">
+      <c r="O2" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="R2" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="S2" s="44"/>
-      <c r="T2" s="35" t="s">
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="U2" s="44"/>
-      <c r="W2" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z2" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA2" s="35" t="s">
+      <c r="R2" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="35"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="AB2" s="27"/>
-      <c r="AC2" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD2" s="27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" ht="45.75">
+      <c r="V2" s="35"/>
+    </row>
+    <row r="3" spans="1:22" ht="45.75">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="23" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="24">
+      <c r="G3" s="21">
         <v>0</v>
       </c>
-      <c r="H3" s="24">
+      <c r="H3" s="21">
         <v>50</v>
       </c>
-      <c r="I3" s="25"/>
+      <c r="I3" s="22"/>
       <c r="J3" s="13"/>
-      <c r="K3" s="28">
+      <c r="K3" s="24">
         <v>0.3</v>
       </c>
-      <c r="L3" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" s="35"/>
-      <c r="N3" s="43" t="s">
+      <c r="L3" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="44"/>
-      <c r="W3" s="16"/>
-      <c r="X3" s="27"/>
-      <c r="Y3" s="27"/>
-      <c r="Z3" s="27"/>
-      <c r="AA3" s="35"/>
-      <c r="AB3" s="27"/>
-      <c r="AC3" s="27"/>
-      <c r="AD3" s="27"/>
-    </row>
-    <row r="4" spans="1:30" ht="60.75">
+      <c r="M3" s="28"/>
+      <c r="N3" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="28"/>
+      <c r="V3" s="35"/>
+    </row>
+    <row r="4" spans="1:22" ht="45.75">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="23" t="s">
+      <c r="C4" s="18"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="24">
+      <c r="G4" s="21">
         <v>0</v>
       </c>
-      <c r="H4" s="24">
+      <c r="H4" s="21">
         <v>1</v>
       </c>
-      <c r="I4" s="25" t="s">
+      <c r="I4" s="22" t="s">
         <v>35</v>
       </c>
       <c r="J4" s="13"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" s="35"/>
-      <c r="N4" s="43" t="s">
+      <c r="K4" s="23"/>
+      <c r="L4" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="35" t="s">
+      <c r="M4" s="28"/>
+      <c r="N4" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="35" t="s">
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="R4" s="35" t="s">
+      <c r="R4" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="S4" s="44"/>
-      <c r="T4" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="U4" s="44"/>
-      <c r="W4" s="16"/>
-      <c r="X4" s="27"/>
-      <c r="Y4" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z4" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA4" s="35" t="s">
+      <c r="S4" s="35"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="AB4" s="27"/>
-      <c r="AC4" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD4" s="27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" ht="60.75">
+      <c r="V4" s="35"/>
+    </row>
+    <row r="5" spans="1:22" ht="45.75">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="23" t="s">
+      <c r="C5" s="18"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="21">
         <v>0</v>
       </c>
-      <c r="H5" s="24">
+      <c r="H5" s="21">
         <v>1</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="I5" s="22" t="s">
         <v>39</v>
       </c>
       <c r="J5" s="13"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="35"/>
-      <c r="N5" s="43" t="s">
+      <c r="K5" s="23"/>
+      <c r="L5" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="O5" s="35"/>
-      <c r="P5" s="35"/>
-      <c r="Q5" s="35"/>
-      <c r="R5" s="35"/>
-      <c r="S5" s="44"/>
-      <c r="T5" s="35"/>
-      <c r="U5" s="44"/>
-      <c r="W5" s="16"/>
-      <c r="X5" s="27"/>
-      <c r="Y5" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z5" s="27" t="s">
+      <c r="M5" s="28"/>
+      <c r="N5" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="AA5" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB5" s="27"/>
-      <c r="AC5" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD5" s="27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" ht="60.75">
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="35"/>
+    </row>
+    <row r="6" spans="1:22" ht="45.75">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="22">
+      <c r="C6" s="18"/>
+      <c r="D6" s="19">
         <f>130410+535090+104990.75</f>
         <v>770490.75</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="G6" s="21">
+        <v>0</v>
+      </c>
+      <c r="H6" s="21">
+        <v>2600000</v>
+      </c>
+      <c r="I6" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="24">
-        <v>0</v>
-      </c>
-      <c r="H6" s="24">
-        <v>2600000</v>
-      </c>
-      <c r="I6" s="25" t="s">
+      <c r="J6" s="13"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" s="28"/>
+      <c r="N6" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="35"/>
+      <c r="T6" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="13"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="M6" s="35"/>
-      <c r="N6" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="35"/>
-      <c r="S6" s="44"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="44"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="27"/>
-      <c r="Y6" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z6" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA6" s="35"/>
-      <c r="AB6" s="27"/>
-      <c r="AC6" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD6" s="27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" ht="60.75">
+      <c r="U6" s="28"/>
+      <c r="V6" s="35"/>
+    </row>
+    <row r="7" spans="1:22" ht="45.75">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="23" t="s">
+      <c r="C7" s="18"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="21">
         <v>0</v>
       </c>
-      <c r="H7" s="24">
+      <c r="H7" s="21">
         <v>16000</v>
       </c>
-      <c r="I7" s="25"/>
+      <c r="I7" s="22"/>
       <c r="J7" s="13"/>
-      <c r="K7" s="29">
+      <c r="K7" s="25">
         <v>0.625</v>
       </c>
-      <c r="L7" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="M7" s="35"/>
-      <c r="N7" s="43" t="s">
+      <c r="L7" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="35"/>
-      <c r="S7" s="44" t="s">
+      <c r="M7" s="28"/>
+      <c r="N7" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="T7" s="35"/>
-      <c r="U7" s="44"/>
-      <c r="W7" s="16"/>
-      <c r="X7" s="27"/>
-      <c r="Y7" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z7" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA7" s="35"/>
-      <c r="AB7" s="27"/>
-      <c r="AC7" s="27"/>
-      <c r="AD7" s="27"/>
-    </row>
-    <row r="8" spans="1:30" ht="60.75">
+      <c r="T7" s="28"/>
+      <c r="U7" s="28"/>
+      <c r="V7" s="35"/>
+    </row>
+    <row r="8" spans="1:22" ht="45.75">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="22">
+      <c r="C8" s="18"/>
+      <c r="D8" s="19">
         <f>1207750+104990.75</f>
         <v>1312740.75</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="21">
         <v>0</v>
       </c>
-      <c r="H8" s="24">
+      <c r="H8" s="21">
         <v>0.75</v>
       </c>
-      <c r="I8" s="25"/>
+      <c r="I8" s="22"/>
       <c r="J8" s="13"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="M8" s="35"/>
-      <c r="N8" s="43" t="s">
+      <c r="K8" s="23"/>
+      <c r="L8" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" s="28"/>
+      <c r="N8" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="35"/>
-      <c r="R8" s="35"/>
-      <c r="S8" s="44" t="s">
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="T8" s="35"/>
-      <c r="U8" s="44"/>
-      <c r="W8" s="16"/>
-      <c r="X8" s="27"/>
-      <c r="Y8" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z8" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA8" s="35"/>
-      <c r="AB8" s="27"/>
-      <c r="AC8" s="27"/>
-      <c r="AD8" s="27"/>
-    </row>
-    <row r="9" spans="1:30" ht="60.75">
+      <c r="T8" s="28"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="35"/>
+    </row>
+    <row r="9" spans="1:22" ht="45.75">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="23" t="s">
+      <c r="C9" s="18"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="24">
+      <c r="G9" s="21">
         <v>0</v>
       </c>
-      <c r="H9" s="24">
+      <c r="H9" s="21">
         <v>100</v>
       </c>
-      <c r="I9" s="25"/>
+      <c r="I9" s="22"/>
       <c r="J9" s="13"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="M9" s="35"/>
-      <c r="N9" s="43" t="s">
+      <c r="K9" s="23"/>
+      <c r="L9" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="35"/>
-      <c r="S9" s="44"/>
-      <c r="T9" s="35"/>
-      <c r="U9" s="44"/>
-      <c r="W9" s="16"/>
-      <c r="X9" s="27"/>
-      <c r="Y9" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z9" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA9" s="35"/>
-      <c r="AB9" s="27"/>
-      <c r="AC9" s="27"/>
-      <c r="AD9" s="27"/>
-    </row>
-    <row r="10" spans="1:30" ht="60.75">
+      <c r="M9" s="28"/>
+      <c r="N9" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="35"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="35"/>
+    </row>
+    <row r="10" spans="1:22" ht="45.75">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="23" t="s">
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="21">
         <v>0</v>
       </c>
-      <c r="H10" s="24">
+      <c r="H10" s="21">
         <v>17867</v>
       </c>
-      <c r="I10" s="25" t="s">
+      <c r="I10" s="22" t="s">
         <v>52</v>
       </c>
       <c r="J10" s="13"/>
-      <c r="K10" s="28">
+      <c r="K10" s="24">
         <v>0.6</v>
       </c>
-      <c r="L10" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="M10" s="35"/>
-      <c r="N10" s="43" t="s">
+      <c r="L10" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" s="28"/>
+      <c r="N10" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="35"/>
-      <c r="S10" s="44" t="s">
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="T10" s="35"/>
-      <c r="U10" s="44"/>
-      <c r="W10" s="16"/>
-      <c r="X10" s="27"/>
-      <c r="Y10" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z10" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA10" s="35"/>
-      <c r="AB10" s="27"/>
-      <c r="AC10" s="27"/>
-      <c r="AD10" s="27"/>
-    </row>
-    <row r="11" spans="1:30" ht="60.75">
+      <c r="T10" s="28"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="35"/>
+    </row>
+    <row r="11" spans="1:22" ht="45.75">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="23" t="s">
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="G11" s="24">
+      <c r="G11" s="21">
         <v>0</v>
       </c>
-      <c r="H11" s="24">
+      <c r="H11" s="21">
         <v>3000000</v>
       </c>
-      <c r="I11" s="25" t="s">
+      <c r="I11" s="22" t="s">
         <v>55</v>
       </c>
       <c r="J11" s="13"/>
-      <c r="K11" s="28">
+      <c r="K11" s="24">
         <v>0.6</v>
       </c>
-      <c r="L11" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="M11" s="35"/>
-      <c r="N11" s="43" t="s">
+      <c r="L11" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="35"/>
-      <c r="S11" s="44"/>
-      <c r="T11" s="35"/>
-      <c r="U11" s="44"/>
-      <c r="W11" s="16"/>
-      <c r="X11" s="27"/>
-      <c r="Y11" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z11" s="27" t="s">
+      <c r="M11" s="28"/>
+      <c r="N11" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="AA11" s="35"/>
-      <c r="AB11" s="27"/>
-      <c r="AC11" s="27"/>
-      <c r="AD11" s="27"/>
-    </row>
-    <row r="12" spans="1:30" ht="60.75">
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="35"/>
+      <c r="T11" s="28"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="35"/>
+    </row>
+    <row r="12" spans="1:22" ht="60.75">
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="22">
+      <c r="C12" s="18"/>
+      <c r="D12" s="19">
         <f>140000+104990.75</f>
         <v>244990.75</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="24">
+      <c r="G12" s="21">
         <v>0</v>
       </c>
-      <c r="H12" s="30"/>
-      <c r="I12" s="25" t="s">
+      <c r="H12" s="26"/>
+      <c r="I12" s="22" t="s">
         <v>58</v>
       </c>
       <c r="J12" s="14"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="M12" s="35"/>
-      <c r="N12" s="43" t="s">
+      <c r="K12" s="23"/>
+      <c r="L12" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="35"/>
-      <c r="R12" s="35"/>
-      <c r="S12" s="44"/>
-      <c r="T12" s="35"/>
-      <c r="U12" s="44"/>
-      <c r="W12" s="17"/>
-      <c r="X12" s="27"/>
-      <c r="Y12" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z12" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA12" s="35"/>
-      <c r="AB12" s="27"/>
-      <c r="AC12" s="27"/>
-      <c r="AD12" s="27"/>
-    </row>
-    <row r="13" spans="1:30">
-      <c r="D13" s="32"/>
-    </row>
-    <row r="16" spans="1:30">
-      <c r="D16" s="33"/>
-    </row>
-    <row r="22" spans="4:4">
-      <c r="D22" s="34"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="35"/>
+      <c r="T12" s="28"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="35"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <dataValidations count="12">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2:Y12 N2:N12" xr:uid="{C97CD822-1EF8-494F-AE7E-632A70A49200}">
+  <dataValidations count="10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N12" xr:uid="{C97CD822-1EF8-494F-AE7E-632A70A49200}">
       <formula1>"Accelerating just energy transition, Close the gap on energy access, Scale up energy finance"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2:Z12" xr:uid="{2B4404E3-F9B0-45C8-89E8-867976A3079F}">
-      <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB2:AB12 P2:P12" xr:uid="{6064E3B9-EE0D-4E1D-B180-76D1CF743298}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P12" xr:uid="{6064E3B9-EE0D-4E1D-B180-76D1CF743298}">
       <formula1>"AMP, PUDC, Solar4Health, Action Opportunities, Italy UNDP Energy Partnership"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC12 Q2:Q12" xr:uid="{D01817DA-E906-464D-B4D9-01FC52C02F03}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q12" xr:uid="{D01817DA-E906-464D-B4D9-01FC52C02F03}">
       <formula1>"NDC Support, National Strategy, Legal Framework,Incentives and Support, Government Capacity-Building, Carbon Pricing and Monitoring, Financing Model, Business Model"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2:AD12" xr:uid="{14444775-60E4-426C-AD07-19A693D2731D}">
-      <formula1>"Electricity Access, Energy Efficiency, Renewable EnergyEnergy Infrastructure,   Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA12" xr:uid="{64704F51-D586-43E9-BFB7-089DC6970181}">
-      <formula1>"Tier 1, Tier 2, Tier 3"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O12" xr:uid="{AF742A2B-B13D-446F-8652-9C527C8A3A12}">
       <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy, Overall"</formula1>
@@ -1770,7 +1567,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M12" xr:uid="{A7CC9610-9D29-4412-809C-E2C9C138B228}">
       <formula1>"Finance, Gender, Efficiency, Just, Health"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T12" xr:uid="{60F940FA-6F53-4AA9-A669-62EC0E1A1D1E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U12" xr:uid="{60F940FA-6F53-4AA9-A669-62EC0E1A1D1E}">
       <formula1>"National, Regional, City, Community"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L12" xr:uid="{1BF8D641-8EF8-4F91-B637-675C09CC5E2F}">
@@ -1781,6 +1578,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S12" xr:uid="{50012757-2500-439F-903C-6D9310A53A71}">
       <formula1>"Solar, Wind, Bioenergy, Hydro, Geothermal, Waste, Some Sources, Other, Unknown"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T12" xr:uid="{3BA29F56-3183-4948-B446-F22C7966A9BA}">
+      <formula1>"Incentives and Support, Derisking Financial Model, Business Model"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -1861,20 +1661,20 @@
         <v>5476</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" s="3">
         <f>386750+104990.75</f>
         <v>491740.75</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G2" s="8">
         <v>0</v>
@@ -1883,7 +1683,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
@@ -1891,14 +1691,14 @@
         <v>5476</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>33</v>
@@ -1916,14 +1716,14 @@
         <v>5476</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>34</v>
@@ -1943,14 +1743,14 @@
         <v>5476</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>62</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>38</v>
@@ -1970,7 +1770,7 @@
         <v>5476</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>63</v>
@@ -1983,7 +1783,7 @@
         <v>46</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G6" s="8">
         <v>0</v>
@@ -1992,7 +1792,7 @@
         <v>2000</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30">
@@ -2000,7 +1800,7 @@
         <v>5476</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>64</v>
@@ -2025,7 +1825,7 @@
         <v>5476</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>66</v>
@@ -2053,7 +1853,7 @@
         <v>5476</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>67</v>
@@ -2078,7 +1878,7 @@
         <v>5476</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>68</v>
@@ -2105,7 +1905,7 @@
         <v>5476</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>70</v>
@@ -2132,7 +1932,7 @@
         <v>5476</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>73</v>
@@ -2205,178 +2005,178 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="29" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="45.75">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="30" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="30" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30.75">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="30" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30.75">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="30" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="91.5">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="30" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="45.75">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="30" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="45.75">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="30" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="45.75">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="30" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30.75">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="41" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="30.75">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="41" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="45.75">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="30" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="30.75">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="41" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="41" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30.75">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="41" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="30.75">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="41" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="30.75">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="30" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30.75">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="41" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="76.5">
-      <c r="A19" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="46" t="s">
+      <c r="A19" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="41" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="30.75">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="41" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="45.75">
-      <c r="A21" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="47" t="s">
+      <c r="A21" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="42" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30.75">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="41" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2386,28 +2186,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dd25160c21e587dbb66203dfb8c7aa52">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="05ccd5be12d50c438f9536854e894bcb" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
     <xsd:import namespace="fb9e4d32-074f-4c04-81ef-e811753dfd59"/>
     <xsd:element name="properties">
@@ -2432,6 +2212,7 @@
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -2511,6 +2292,11 @@
     <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -2654,8 +2440,28 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AC3D2A-DE44-44DA-AD33-132B1E30BC8B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C4D4080-881D-445F-AB83-CF421A46FAAF}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2663,5 +2469,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86C6D015-974A-4D7C-A3B3-2F90FB0753ED}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AC3D2A-DE44-44DA-AD33-132B1E30BC8B}"/>
 </file>
--- a/01_Input/00_CO Validation/Tajikistan - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Tajikistan - Energy Projects.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="166" documentId="13_ncr:1_{4D798623-4A28-42C6-9D5C-97D18ADE5574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A1DC20D-7ADC-4780-B64B-813C986B76F7}"/>
+  <xr:revisionPtr revIDLastSave="167" documentId="13_ncr:1_{4D798623-4A28-42C6-9D5C-97D18ADE5574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2CFA0639-2E5C-4542-A01D-8A80F35A07C3}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="108">
   <si>
     <t>Project ID</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>Policy Population</t>
+  </si>
+  <si>
+    <t>5476, 97769</t>
   </si>
   <si>
     <t>Green Energy SME Development Project</t>
@@ -559,7 +562,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -663,9 +666,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -991,8 +991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31B300DB-FA14-4D99-97C9-D812FBCEF4A4}">
   <dimension ref="A1:V12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1009,14 +1009,14 @@
     <col min="10" max="10" width="9.140625" style="27"/>
     <col min="11" max="11" width="10.140625" style="27" customWidth="1"/>
     <col min="12" max="12" width="12.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="36"/>
-    <col min="14" max="14" width="13.5703125" style="36" customWidth="1"/>
-    <col min="15" max="15" width="17.5703125" style="36" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="36" customWidth="1"/>
-    <col min="17" max="17" width="21.5703125" style="36" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.140625" style="36" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.85546875" style="36" customWidth="1"/>
-    <col min="20" max="20" width="21.5703125" style="36" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="27"/>
+    <col min="14" max="14" width="13.5703125" style="27" customWidth="1"/>
+    <col min="15" max="15" width="17.5703125" style="27" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="27" customWidth="1"/>
+    <col min="17" max="17" width="21.5703125" style="27" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.85546875" style="27" customWidth="1"/>
+    <col min="20" max="20" width="21.5703125" style="27" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="30.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="9.140625" style="2"/>
   </cols>
@@ -1055,7 +1055,7 @@
       <c r="K1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="L1" s="36" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="31" t="s">
@@ -1076,7 +1076,7 @@
       <c r="R1" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="38" t="s">
+      <c r="S1" s="37" t="s">
         <v>18</v>
       </c>
       <c r="T1" s="32" t="s">
@@ -1090,14 +1090,14 @@
       </c>
     </row>
     <row r="2" spans="1:22" ht="45.75">
-      <c r="A2" s="12">
-        <v>5476</v>
+      <c r="A2" s="12" t="s">
+        <v>22</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" s="19">
         <f>386750+104990.75</f>
@@ -1107,7 +1107,7 @@
         <v>20</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G2" s="21">
         <v>0</v>
@@ -1116,33 +1116,33 @@
         <v>1</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K2" s="23"/>
       <c r="L2" s="34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M2" s="28"/>
-      <c r="N2" s="39" t="s">
-        <v>28</v>
+      <c r="N2" s="38" t="s">
+        <v>29</v>
       </c>
       <c r="O2" s="28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P2" s="28"/>
       <c r="Q2" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" s="28" t="s">
         <v>30</v>
-      </c>
-      <c r="R2" s="28" t="s">
-        <v>29</v>
       </c>
       <c r="S2" s="35"/>
       <c r="T2" s="28"/>
       <c r="U2" s="28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V2" s="35"/>
     </row>
@@ -1152,10 +1152,10 @@
       <c r="C3" s="18"/>
       <c r="D3" s="19"/>
       <c r="E3" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G3" s="21">
         <v>0</v>
@@ -1169,11 +1169,11 @@
         <v>0.3</v>
       </c>
       <c r="L3" s="34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M3" s="28"/>
-      <c r="N3" s="39" t="s">
-        <v>28</v>
+      <c r="N3" s="38" t="s">
+        <v>29</v>
       </c>
       <c r="O3" s="28"/>
       <c r="P3" s="28"/>
@@ -1193,7 +1193,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G4" s="21">
         <v>0</v>
@@ -1202,31 +1202,31 @@
         <v>1</v>
       </c>
       <c r="I4" s="22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J4" s="13"/>
       <c r="K4" s="23"/>
       <c r="L4" s="34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M4" s="28"/>
-      <c r="N4" s="39" t="s">
-        <v>28</v>
+      <c r="N4" s="38" t="s">
+        <v>29</v>
       </c>
       <c r="O4" s="28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P4" s="28"/>
       <c r="Q4" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="R4" s="28" t="s">
         <v>37</v>
-      </c>
-      <c r="R4" s="28" t="s">
-        <v>36</v>
       </c>
       <c r="S4" s="35"/>
       <c r="T4" s="28"/>
       <c r="U4" s="28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V4" s="35"/>
     </row>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G5" s="21">
         <v>0</v>
@@ -1248,16 +1248,16 @@
         <v>1</v>
       </c>
       <c r="I5" s="22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J5" s="13"/>
       <c r="K5" s="23"/>
       <c r="L5" s="34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M5" s="28"/>
-      <c r="N5" s="39" t="s">
-        <v>28</v>
+      <c r="N5" s="38" t="s">
+        <v>29</v>
       </c>
       <c r="O5" s="28"/>
       <c r="P5" s="28"/>
@@ -1280,7 +1280,7 @@
         <v>19</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G6" s="21">
         <v>0</v>
@@ -1289,16 +1289,16 @@
         <v>2600000</v>
       </c>
       <c r="I6" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J6" s="13"/>
       <c r="K6" s="23"/>
       <c r="L6" s="34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M6" s="28"/>
-      <c r="N6" s="39" t="s">
-        <v>28</v>
+      <c r="N6" s="38" t="s">
+        <v>29</v>
       </c>
       <c r="O6" s="28"/>
       <c r="P6" s="28"/>
@@ -1306,7 +1306,7 @@
       <c r="R6" s="28"/>
       <c r="S6" s="35"/>
       <c r="T6" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U6" s="28"/>
       <c r="V6" s="35"/>
@@ -1317,10 +1317,10 @@
       <c r="C7" s="18"/>
       <c r="D7" s="19"/>
       <c r="E7" s="20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G7" s="21">
         <v>0</v>
@@ -1334,18 +1334,18 @@
         <v>0.625</v>
       </c>
       <c r="L7" s="34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M7" s="28"/>
-      <c r="N7" s="39" t="s">
-        <v>28</v>
+      <c r="N7" s="38" t="s">
+        <v>29</v>
       </c>
       <c r="O7" s="28"/>
       <c r="P7" s="28"/>
       <c r="Q7" s="28"/>
       <c r="R7" s="28"/>
       <c r="S7" s="35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T7" s="28"/>
       <c r="U7" s="28"/>
@@ -1360,10 +1360,10 @@
         <v>1312740.75</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G8" s="21">
         <v>0</v>
@@ -1375,18 +1375,18 @@
       <c r="J8" s="13"/>
       <c r="K8" s="23"/>
       <c r="L8" s="34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M8" s="28"/>
-      <c r="N8" s="39" t="s">
-        <v>48</v>
+      <c r="N8" s="38" t="s">
+        <v>49</v>
       </c>
       <c r="O8" s="28"/>
       <c r="P8" s="28"/>
       <c r="Q8" s="28"/>
       <c r="R8" s="28"/>
       <c r="S8" s="35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T8" s="28"/>
       <c r="U8" s="28"/>
@@ -1398,10 +1398,10 @@
       <c r="C9" s="18"/>
       <c r="D9" s="19"/>
       <c r="E9" s="20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G9" s="21">
         <v>0</v>
@@ -1413,11 +1413,11 @@
       <c r="J9" s="13"/>
       <c r="K9" s="23"/>
       <c r="L9" s="34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M9" s="28"/>
-      <c r="N9" s="39" t="s">
-        <v>28</v>
+      <c r="N9" s="38" t="s">
+        <v>29</v>
       </c>
       <c r="O9" s="28"/>
       <c r="P9" s="28"/>
@@ -1434,10 +1434,10 @@
       <c r="C10" s="18"/>
       <c r="D10" s="19"/>
       <c r="E10" s="20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G10" s="21">
         <v>0</v>
@@ -1446,25 +1446,25 @@
         <v>17867</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J10" s="13"/>
       <c r="K10" s="24">
         <v>0.6</v>
       </c>
       <c r="L10" s="34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M10" s="28"/>
-      <c r="N10" s="39" t="s">
-        <v>48</v>
+      <c r="N10" s="38" t="s">
+        <v>49</v>
       </c>
       <c r="O10" s="28"/>
       <c r="P10" s="28"/>
       <c r="Q10" s="28"/>
       <c r="R10" s="28"/>
       <c r="S10" s="35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T10" s="28"/>
       <c r="U10" s="28"/>
@@ -1476,10 +1476,10 @@
       <c r="C11" s="18"/>
       <c r="D11" s="19"/>
       <c r="E11" s="20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G11" s="21">
         <v>0</v>
@@ -1488,18 +1488,18 @@
         <v>3000000</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J11" s="13"/>
       <c r="K11" s="24">
         <v>0.6</v>
       </c>
       <c r="L11" s="34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M11" s="28"/>
-      <c r="N11" s="39" t="s">
-        <v>28</v>
+      <c r="N11" s="38" t="s">
+        <v>29</v>
       </c>
       <c r="O11" s="28"/>
       <c r="P11" s="28"/>
@@ -1519,26 +1519,26 @@
         <v>244990.75</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G12" s="21">
         <v>0</v>
       </c>
       <c r="H12" s="26"/>
       <c r="I12" s="22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J12" s="14"/>
       <c r="K12" s="23"/>
       <c r="L12" s="34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M12" s="28"/>
-      <c r="N12" s="39" t="s">
-        <v>28</v>
+      <c r="N12" s="38" t="s">
+        <v>29</v>
       </c>
       <c r="O12" s="28"/>
       <c r="P12" s="28"/>
@@ -1661,10 +1661,10 @@
         <v>5476</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" s="3">
         <f>386750+104990.75</f>
@@ -1674,7 +1674,7 @@
         <v>20</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G2" s="8">
         <v>0</v>
@@ -1683,7 +1683,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
@@ -1691,23 +1691,23 @@
         <v>5476</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G3" s="8">
         <v>0</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I3" s="7"/>
     </row>
@@ -1716,17 +1716,17 @@
         <v>5476</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G4" s="8">
         <v>0</v>
@@ -1735,7 +1735,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="45">
@@ -1743,17 +1743,17 @@
         <v>5476</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G5" s="8">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="45">
@@ -1770,20 +1770,20 @@
         <v>5476</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D6" s="3">
         <f>130410+535090+104990.75</f>
         <v>770490.75</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G6" s="8">
         <v>0</v>
@@ -1792,7 +1792,7 @@
         <v>2000</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30">
@@ -1800,23 +1800,23 @@
         <v>5476</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G7" s="8">
         <v>0</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I7" s="7"/>
     </row>
@@ -1825,20 +1825,20 @@
         <v>5476</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D8" s="3">
         <f>1207750+104990.75</f>
         <v>1312740.75</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G8" s="8">
         <v>0</v>
@@ -1853,17 +1853,17 @@
         <v>5476</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G9" s="8">
         <v>0</v>
@@ -1878,26 +1878,26 @@
         <v>5476</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G10" s="8">
         <v>0</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="45">
@@ -1905,26 +1905,26 @@
         <v>5476</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G11" s="8">
         <v>0</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="60">
@@ -1932,20 +1932,20 @@
         <v>5476</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D12" s="3">
         <f>140000+104990.75</f>
         <v>244990.75</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G12" s="8">
         <v>0</v>
@@ -1954,7 +1954,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -2013,171 +2013,171 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="45.75">
-      <c r="A2" s="40" t="s">
-        <v>43</v>
+      <c r="A2" s="39" t="s">
+        <v>44</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="40" t="s">
-        <v>46</v>
+      <c r="A3" s="39" t="s">
+        <v>47</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30.75">
-      <c r="A4" s="40" t="s">
-        <v>76</v>
+      <c r="A4" s="39" t="s">
+        <v>77</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30.75">
-      <c r="A5" s="40" t="s">
-        <v>78</v>
+      <c r="A5" s="39" t="s">
+        <v>79</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="91.5">
-      <c r="A6" s="40" t="s">
-        <v>80</v>
+      <c r="A6" s="39" t="s">
+        <v>81</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="45.75">
-      <c r="A7" s="40" t="s">
-        <v>82</v>
+      <c r="A7" s="39" t="s">
+        <v>83</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="45.75">
-      <c r="A8" s="40" t="s">
-        <v>84</v>
+      <c r="A8" s="39" t="s">
+        <v>85</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="45.75">
-      <c r="A9" s="40" t="s">
-        <v>86</v>
+      <c r="A9" s="39" t="s">
+        <v>87</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30.75">
-      <c r="A10" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="B10" s="41" t="s">
+      <c r="A10" s="39" t="s">
         <v>89</v>
       </c>
+      <c r="B10" s="40" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="11" spans="1:2" ht="30.75">
-      <c r="A11" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="B11" s="41" t="s">
+      <c r="A11" s="39" t="s">
         <v>91</v>
       </c>
+      <c r="B11" s="40" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="12" spans="1:2" ht="45.75">
-      <c r="A12" s="40" t="s">
-        <v>92</v>
+      <c r="A12" s="39" t="s">
+        <v>93</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="30.75">
-      <c r="A13" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="41" t="s">
-        <v>94</v>
+      <c r="A13" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="B14" s="41" t="s">
+      <c r="A14" s="39" t="s">
         <v>96</v>
       </c>
+      <c r="B14" s="40" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="15" spans="1:2" ht="30.75">
-      <c r="A15" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="41" t="s">
-        <v>97</v>
+      <c r="A15" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="30.75">
-      <c r="A16" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="B16" s="41" t="s">
+      <c r="A16" s="39" t="s">
         <v>99</v>
       </c>
+      <c r="B16" s="40" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="17" spans="1:2" ht="30.75">
-      <c r="A17" s="40" t="s">
-        <v>32</v>
+      <c r="A17" s="39" t="s">
+        <v>33</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30.75">
-      <c r="A18" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="B18" s="41" t="s">
+      <c r="A18" s="39" t="s">
         <v>102</v>
       </c>
+      <c r="B18" s="40" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="19" spans="1:2" ht="76.5">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="41" t="s">
-        <v>103</v>
+      <c r="B19" s="40" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="30.75">
-      <c r="A20" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" s="41" t="s">
-        <v>104</v>
+      <c r="A20" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="40" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="45.75">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="42" t="s">
-        <v>105</v>
+      <c r="B21" s="41" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30.75">
-      <c r="A22" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="B22" s="41" t="s">
-        <v>106</v>
+      <c r="A22" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="40" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2186,6 +2186,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dd25160c21e587dbb66203dfb8c7aa52">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="05ccd5be12d50c438f9536854e894bcb" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
@@ -2440,28 +2460,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C4D4080-881D-445F-AB83-CF421A46FAAF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AC3D2A-DE44-44DA-AD33-132B1E30BC8B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2469,5 +2469,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AC3D2A-DE44-44DA-AD33-132B1E30BC8B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C4D4080-881D-445F-AB83-CF421A46FAAF}"/>
 </file>